--- a/aftercrash_Rename_pdftotext.xlsx
+++ b/aftercrash_Rename_pdftotext.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11280" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Commands SED AWK perl" sheetId="4" r:id="rId1"/>
     <sheet name="Dosing creation" sheetId="8" r:id="rId2"/>
     <sheet name="Diagnosis creation" sheetId="7" r:id="rId3"/>
-    <sheet name="Rename pdf files using CMD" sheetId="1" r:id="rId4"/>
-    <sheet name="Find folder size using Cygwin" sheetId="3" r:id="rId5"/>
-    <sheet name="Various attempts" sheetId="5" r:id="rId6"/>
-    <sheet name="Planned Downloaded TXT" sheetId="6" r:id="rId7"/>
+    <sheet name="All data creation" sheetId="9" r:id="rId4"/>
+    <sheet name="Rename pdf files using CMD" sheetId="1" r:id="rId5"/>
+    <sheet name="Find folder size using Cygwin" sheetId="3" r:id="rId6"/>
+    <sheet name="Various attempts" sheetId="5" r:id="rId7"/>
+    <sheet name="Planned Downloaded TXT" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="465">
   <si>
     <t>cd .. &amp; cd  MR000001_MR001000 &amp; rename *.pdf? *pdf</t>
   </si>
@@ -1416,6 +1417,12 @@
   </si>
   <si>
     <t>for fl in `find MR048001_MR049000 -name 'MR*.txt'|xargs -P10 -n20 grep -l 'Medicine Name'`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for fl in `find </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</t>
   </si>
 </sst>
 </file>
@@ -1836,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT69"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+    <sheetView topLeftCell="AI33" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2:AJ51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7274,24 +7281,48 @@
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f>43-7+1</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f>62-44+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f>74-63+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f>86-75+1</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7304,9 +7335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J81" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J101"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9056,9 +9085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9108,6 +9135,774 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,B2,C2)</f>
+        <v>for fl in `find MR000001_MR001000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D51" si="0">CONCATENATE(A3,B3,C3)</f>
+        <v>for fl in `find MR001001_MR002000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR002001_MR003000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR003001_MR004000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR004001_MR005000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR005001_MR006000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR006001_MR007000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR007001_MR008000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR008001_MR009000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR009001_MR010000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR010001_MR011000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>463</v>
+      </c>
+      <c r="B13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR011001_MR012000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR012001_MR013000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR013001_MR014000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR014001_MR015000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR015001_MR016000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR016001_MR017000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR017001_MR018000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>463</v>
+      </c>
+      <c r="B20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR018001_MR019000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR019001_MR020000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR020001_MR021000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR021001_MR022000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR022001_MR023000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR023001_MR024000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>463</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>464</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR024001_MR025000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>463</v>
+      </c>
+      <c r="B27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" t="s">
+        <v>464</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR025001_MR026000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>463</v>
+      </c>
+      <c r="B28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR026001_MR027000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" t="s">
+        <v>464</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR027001_MR028000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" t="s">
+        <v>464</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR028001_MR029000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C31" t="s">
+        <v>464</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR029001_MR030000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" t="s">
+        <v>464</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR030001_MR031000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>463</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR031001_MR032000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>463</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" t="s">
+        <v>464</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR032001_MR033000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>463</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C35" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR033001_MR034000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" t="s">
+        <v>464</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR034001_MR035000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>463</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" t="s">
+        <v>464</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR035001_MR036000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" t="s">
+        <v>464</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR036001_MR037000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>463</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="s">
+        <v>464</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR037001_MR038000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>463</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" t="s">
+        <v>464</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR038001_MR039000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>463</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" t="s">
+        <v>464</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR039001_MR040000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" t="s">
+        <v>464</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR040001_MR041000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>463</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C43" t="s">
+        <v>464</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR041001_MR042000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>463</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" t="s">
+        <v>464</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR042001_MR043000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>463</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" t="s">
+        <v>464</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR043001_MR044000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>463</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" t="s">
+        <v>464</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR044001_MR045000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>463</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" t="s">
+        <v>464</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR045001_MR046000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>463</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>464</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR046001_MR047000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>463</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR047001_MR048000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>463</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" t="s">
+        <v>464</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR048001_MR049000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" t="s">
+        <v>464</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>for fl in `find MR049001_MR050000  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
@@ -9385,7 +10180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -9433,7 +10228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N181"/>
   <sheetViews>
@@ -10149,7 +10944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA53"/>
   <sheetViews>

--- a/aftercrash_Rename_pdftotext.xlsx
+++ b/aftercrash_Rename_pdftotext.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Commands SED AWK perl" sheetId="4" r:id="rId1"/>
-    <sheet name="Dosing creation" sheetId="8" r:id="rId2"/>
-    <sheet name="Diagnosis creation" sheetId="7" r:id="rId3"/>
-    <sheet name="All data creation" sheetId="9" r:id="rId4"/>
+    <sheet name="txts_dosing Dosing creation" sheetId="8" r:id="rId2"/>
+    <sheet name="txts_diagnosis Diagn creation" sheetId="7" r:id="rId3"/>
+    <sheet name="txts_crf All data creation" sheetId="9" r:id="rId4"/>
     <sheet name="Rename pdf files using CMD" sheetId="1" r:id="rId5"/>
     <sheet name="Find folder size using Cygwin" sheetId="3" r:id="rId6"/>
     <sheet name="Various attempts" sheetId="5" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="466">
   <si>
     <t>cd .. &amp; cd  MR000001_MR001000 &amp; rename *.pdf? *pdf</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t xml:space="preserve">  -name "MR*.txt"`;do dir=`dirname $fl`; file=`basename $fl`;  echo fl = $fl; echo dir = $dir; echo file = $file;  sed -f /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/prgm/replace.txt $fl &gt; ../pat_txts_crf/$dir"/data_"$file; echo ../pat_txts_crf/$dir"/data_"$file ; echo ; done</t>
+  </si>
+  <si>
+    <t>Execute at /cygdrive/d/Hospital_data/04_2017_DOWNLOAD/pat_txts_mod</t>
   </si>
 </sst>
 </file>
@@ -9085,7 +9088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -9136,10 +9141,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9147,6 +9152,11 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>465</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>463</v>
